--- a/Financials/Yearly/EHIC_YR_FIN.xlsx
+++ b/Financials/Yearly/EHIC_YR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BBC9E90-D799-4DA1-BF20-0264045F3AD7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EHIC" sheetId="6" r:id="rId1"/>
@@ -17,7 +18,7 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -303,9 +304,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +348,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -444,6 +445,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -479,6 +497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -654,33 +689,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A5:K102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
@@ -707,78 +742,78 @@
       </c>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>398400</v>
+        <v>406600</v>
       </c>
       <c r="E8" s="3">
-        <v>306700</v>
+        <v>313000</v>
       </c>
       <c r="F8" s="3">
-        <v>211000</v>
+        <v>215300</v>
       </c>
       <c r="G8" s="3">
-        <v>123800</v>
+        <v>126300</v>
       </c>
       <c r="H8" s="3">
-        <v>82400</v>
+        <v>84100</v>
       </c>
       <c r="I8" s="3">
-        <v>65500</v>
+        <v>66800</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>273500</v>
+        <v>279100</v>
       </c>
       <c r="E9" s="3">
-        <v>220400</v>
+        <v>224900</v>
       </c>
       <c r="F9" s="3">
-        <v>165500</v>
+        <v>168900</v>
       </c>
       <c r="G9" s="3">
-        <v>104500</v>
+        <v>106700</v>
       </c>
       <c r="H9" s="3">
-        <v>76600</v>
+        <v>78100</v>
       </c>
       <c r="I9" s="3">
-        <v>62900</v>
+        <v>64200</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K9" s="3"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>124900</v>
+        <v>127500</v>
       </c>
       <c r="E10" s="3">
-        <v>86300</v>
+        <v>88100</v>
       </c>
       <c r="F10" s="3">
-        <v>45500</v>
+        <v>46400</v>
       </c>
       <c r="G10" s="3">
-        <v>19300</v>
+        <v>19700</v>
       </c>
       <c r="H10" s="3">
-        <v>5800</v>
+        <v>5900</v>
       </c>
       <c r="I10" s="3">
         <v>2600</v>
@@ -788,7 +823,7 @@
       </c>
       <c r="K10" s="3"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -801,7 +836,7 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -828,7 +863,7 @@
       </c>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -855,12 +890,12 @@
       </c>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>3</v>
@@ -882,7 +917,7 @@
       </c>
       <c r="K14" s="3"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -909,7 +944,7 @@
       </c>
       <c r="K15" s="3"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -919,61 +954,61 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
     </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>335400</v>
+        <v>342300</v>
       </c>
       <c r="E17" s="3">
-        <v>269600</v>
+        <v>275200</v>
       </c>
       <c r="F17" s="3">
-        <v>200100</v>
+        <v>204200</v>
       </c>
       <c r="G17" s="3">
-        <v>126400</v>
+        <v>129000</v>
       </c>
       <c r="H17" s="3">
-        <v>96800</v>
+        <v>98800</v>
       </c>
       <c r="I17" s="3">
-        <v>80600</v>
+        <v>82200</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K17" s="3"/>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>63000</v>
+        <v>64300</v>
       </c>
       <c r="E18" s="3">
-        <v>37100</v>
+        <v>37800</v>
       </c>
       <c r="F18" s="3">
-        <v>10900</v>
+        <v>11100</v>
       </c>
       <c r="G18" s="3">
         <v>-2600</v>
       </c>
       <c r="H18" s="3">
-        <v>-14400</v>
+        <v>-14700</v>
       </c>
       <c r="I18" s="3">
-        <v>-15100</v>
+        <v>-15400</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K18" s="3"/>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -986,7 +1021,7 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
     </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -994,10 +1029,10 @@
         <v>2500</v>
       </c>
       <c r="E20" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="F20" s="3">
-        <v>121100</v>
+        <v>123600</v>
       </c>
       <c r="G20" s="3">
         <v>500</v>
@@ -1013,99 +1048,99 @@
       </c>
       <c r="K20" s="3"/>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>175600</v>
+        <v>179100</v>
       </c>
       <c r="E21" s="3">
-        <v>135900</v>
+        <v>138600</v>
       </c>
       <c r="F21" s="3">
-        <v>201200</v>
+        <v>205300</v>
       </c>
       <c r="G21" s="3">
-        <v>39800</v>
+        <v>40600</v>
       </c>
       <c r="H21" s="3">
-        <v>14100</v>
+        <v>14300</v>
       </c>
       <c r="I21" s="3">
-        <v>9300</v>
+        <v>9400</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K21" s="3"/>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>40800</v>
+        <v>41600</v>
       </c>
       <c r="E22" s="3">
-        <v>32700</v>
+        <v>33400</v>
       </c>
       <c r="F22" s="3">
-        <v>18000</v>
+        <v>18400</v>
       </c>
       <c r="G22" s="3">
-        <v>11200</v>
+        <v>11400</v>
       </c>
       <c r="H22" s="3">
-        <v>7400</v>
+        <v>7600</v>
       </c>
       <c r="I22" s="3">
-        <v>9700</v>
+        <v>9900</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K22" s="3"/>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>24700</v>
+        <v>25200</v>
       </c>
       <c r="E23" s="3">
-        <v>5800</v>
+        <v>5900</v>
       </c>
       <c r="F23" s="3">
-        <v>114000</v>
+        <v>116300</v>
       </c>
       <c r="G23" s="3">
-        <v>-13300</v>
+        <v>-13500</v>
       </c>
       <c r="H23" s="3">
-        <v>-22000</v>
+        <v>-22400</v>
       </c>
       <c r="I23" s="3">
-        <v>-24800</v>
+        <v>-25300</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K23" s="3"/>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>6900</v>
+        <v>7000</v>
       </c>
       <c r="E24" s="3">
         <v>1000</v>
       </c>
       <c r="F24" s="3">
-        <v>12700</v>
+        <v>13000</v>
       </c>
       <c r="G24" s="3">
         <v>300</v>
@@ -1121,7 +1156,7 @@
       </c>
       <c r="K24" s="3"/>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1148,61 +1183,61 @@
       </c>
       <c r="K25" s="3"/>
     </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>17800</v>
+        <v>18100</v>
       </c>
       <c r="E26" s="3">
-        <v>4800</v>
+        <v>4900</v>
       </c>
       <c r="F26" s="3">
-        <v>101300</v>
+        <v>103300</v>
       </c>
       <c r="G26" s="3">
-        <v>-13500</v>
+        <v>-13800</v>
       </c>
       <c r="H26" s="3">
-        <v>-22100</v>
+        <v>-22600</v>
       </c>
       <c r="I26" s="3">
-        <v>-25600</v>
+        <v>-26100</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K26" s="3"/>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>17800</v>
+        <v>18100</v>
       </c>
       <c r="E27" s="3">
-        <v>4800</v>
+        <v>4900</v>
       </c>
       <c r="F27" s="3">
-        <v>101300</v>
+        <v>103300</v>
       </c>
       <c r="G27" s="3">
-        <v>-50000</v>
+        <v>-51000</v>
       </c>
       <c r="H27" s="3">
-        <v>-54100</v>
+        <v>-55200</v>
       </c>
       <c r="I27" s="3">
-        <v>-48100</v>
+        <v>-49100</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K27" s="3"/>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1229,7 +1264,7 @@
       </c>
       <c r="K28" s="3"/>
     </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1256,7 +1291,7 @@
       </c>
       <c r="K29" s="3"/>
     </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1283,7 +1318,7 @@
       </c>
       <c r="K30" s="3"/>
     </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1310,7 +1345,7 @@
       </c>
       <c r="K31" s="3"/>
     </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1318,10 +1353,10 @@
         <v>-2500</v>
       </c>
       <c r="E32" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="F32" s="3">
-        <v>-121100</v>
+        <v>-123600</v>
       </c>
       <c r="G32" s="3">
         <v>-500</v>
@@ -1337,34 +1372,34 @@
       </c>
       <c r="K32" s="3"/>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>17800</v>
+        <v>18100</v>
       </c>
       <c r="E33" s="3">
-        <v>4800</v>
+        <v>4900</v>
       </c>
       <c r="F33" s="3">
-        <v>101300</v>
+        <v>103300</v>
       </c>
       <c r="G33" s="3">
-        <v>-50000</v>
+        <v>-51000</v>
       </c>
       <c r="H33" s="3">
-        <v>-54100</v>
+        <v>-55200</v>
       </c>
       <c r="I33" s="3">
-        <v>-48100</v>
+        <v>-49100</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K33" s="3"/>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1391,39 +1426,39 @@
       </c>
       <c r="K34" s="3"/>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>17800</v>
+        <v>18100</v>
       </c>
       <c r="E35" s="3">
-        <v>4800</v>
+        <v>4900</v>
       </c>
       <c r="F35" s="3">
-        <v>101300</v>
+        <v>103300</v>
       </c>
       <c r="G35" s="3">
-        <v>-50000</v>
+        <v>-51000</v>
       </c>
       <c r="H35" s="3">
-        <v>-54100</v>
+        <v>-55200</v>
       </c>
       <c r="I35" s="3">
-        <v>-48100</v>
+        <v>-49100</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K35" s="3"/>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
@@ -1450,7 +1485,7 @@
       </c>
       <c r="K38" s="2"/>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1463,7 +1498,7 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1476,34 +1511,34 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>97600</v>
+        <v>99600</v>
       </c>
       <c r="E41" s="3">
-        <v>77000</v>
+        <v>78600</v>
       </c>
       <c r="F41" s="3">
-        <v>379600</v>
+        <v>387400</v>
       </c>
       <c r="G41" s="3">
-        <v>134700</v>
+        <v>137500</v>
       </c>
       <c r="H41" s="3">
-        <v>91700</v>
+        <v>93600</v>
       </c>
       <c r="I41" s="3">
-        <v>19400</v>
+        <v>19800</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K41" s="3"/>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1530,34 +1565,34 @@
       </c>
       <c r="K42" s="3"/>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>235800</v>
+        <v>240600</v>
       </c>
       <c r="E43" s="3">
-        <v>133600</v>
+        <v>136400</v>
       </c>
       <c r="F43" s="3">
-        <v>54300</v>
+        <v>55400</v>
       </c>
       <c r="G43" s="3">
-        <v>27700</v>
+        <v>28300</v>
       </c>
       <c r="H43" s="3">
-        <v>10600</v>
+        <v>10900</v>
       </c>
       <c r="I43" s="3">
-        <v>8000</v>
+        <v>8200</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K43" s="3"/>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1584,61 +1619,61 @@
       </c>
       <c r="K44" s="3"/>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>155900</v>
+        <v>159100</v>
       </c>
       <c r="E45" s="3">
-        <v>208800</v>
+        <v>213100</v>
       </c>
       <c r="F45" s="3">
-        <v>64500</v>
+        <v>65800</v>
       </c>
       <c r="G45" s="3">
-        <v>45000</v>
+        <v>45900</v>
       </c>
       <c r="H45" s="3">
-        <v>14500</v>
+        <v>14800</v>
       </c>
       <c r="I45" s="3">
-        <v>7400</v>
+        <v>7500</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K45" s="3"/>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>489300</v>
+        <v>499300</v>
       </c>
       <c r="E46" s="3">
-        <v>282400</v>
+        <v>288200</v>
       </c>
       <c r="F46" s="3">
-        <v>498400</v>
+        <v>508600</v>
       </c>
       <c r="G46" s="3">
-        <v>207400</v>
+        <v>211700</v>
       </c>
       <c r="H46" s="3">
-        <v>116900</v>
+        <v>119300</v>
       </c>
       <c r="I46" s="3">
-        <v>34800</v>
+        <v>35500</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K46" s="3"/>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1652,7 +1687,7 @@
         <v>0</v>
       </c>
       <c r="G47" s="3">
-        <v>22200</v>
+        <v>22700</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
@@ -1665,61 +1700,61 @@
       </c>
       <c r="K47" s="3"/>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1026300</v>
+        <v>1047300</v>
       </c>
       <c r="E48" s="3">
-        <v>1664800</v>
+        <v>1698900</v>
       </c>
       <c r="F48" s="3">
-        <v>595800</v>
+        <v>608000</v>
       </c>
       <c r="G48" s="3">
-        <v>282100</v>
+        <v>287900</v>
       </c>
       <c r="H48" s="3">
-        <v>154500</v>
+        <v>157700</v>
       </c>
       <c r="I48" s="3">
-        <v>122800</v>
+        <v>125300</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K48" s="3"/>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>9700</v>
+        <v>9900</v>
       </c>
       <c r="E49" s="3">
-        <v>9300</v>
+        <v>9500</v>
       </c>
       <c r="F49" s="3">
-        <v>6600</v>
+        <v>6700</v>
       </c>
       <c r="G49" s="3">
-        <v>5600</v>
+        <v>5700</v>
       </c>
       <c r="H49" s="3">
         <v>4400</v>
       </c>
       <c r="I49" s="3">
-        <v>4200</v>
+        <v>4300</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K49" s="3"/>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1746,7 +1781,7 @@
       </c>
       <c r="K50" s="3"/>
     </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1773,24 +1808,24 @@
       </c>
       <c r="K51" s="3"/>
     </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>62500</v>
+        <v>63800</v>
       </c>
       <c r="E52" s="3">
-        <v>62800</v>
+        <v>64100</v>
       </c>
       <c r="F52" s="3">
-        <v>33700</v>
+        <v>34400</v>
       </c>
       <c r="G52" s="3">
-        <v>28800</v>
+        <v>29400</v>
       </c>
       <c r="H52" s="3">
-        <v>19000</v>
+        <v>19300</v>
       </c>
       <c r="I52" s="3">
         <v>600</v>
@@ -1800,7 +1835,7 @@
       </c>
       <c r="K52" s="3"/>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1827,34 +1862,34 @@
       </c>
       <c r="K53" s="3"/>
     </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1589300</v>
+        <v>1621900</v>
       </c>
       <c r="E54" s="3">
-        <v>1186800</v>
+        <v>1211200</v>
       </c>
       <c r="F54" s="3">
-        <v>1134500</v>
+        <v>1157700</v>
       </c>
       <c r="G54" s="3">
-        <v>546200</v>
+        <v>557400</v>
       </c>
       <c r="H54" s="3">
-        <v>294700</v>
+        <v>300700</v>
       </c>
       <c r="I54" s="3">
-        <v>162400</v>
+        <v>165700</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K54" s="3"/>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1867,7 +1902,7 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
     </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1880,18 +1915,18 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
     </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>112300</v>
+        <v>114600</v>
       </c>
       <c r="E57" s="3">
-        <v>76000</v>
+        <v>77500</v>
       </c>
       <c r="F57" s="3">
-        <v>114300</v>
+        <v>116600</v>
       </c>
       <c r="G57" s="3">
         <v>800</v>
@@ -1907,120 +1942,120 @@
       </c>
       <c r="K57" s="3"/>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>386500</v>
+        <v>394400</v>
       </c>
       <c r="E58" s="3">
-        <v>269400</v>
+        <v>274900</v>
       </c>
       <c r="F58" s="3">
-        <v>116800</v>
+        <v>119200</v>
       </c>
       <c r="G58" s="3">
-        <v>78600</v>
+        <v>80200</v>
       </c>
       <c r="H58" s="3">
-        <v>31900</v>
+        <v>32600</v>
       </c>
       <c r="I58" s="3">
-        <v>59500</v>
+        <v>60800</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K58" s="3"/>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>43300</v>
+        <v>44200</v>
       </c>
       <c r="E59" s="3">
-        <v>33800</v>
+        <v>34400</v>
       </c>
       <c r="F59" s="3">
-        <v>42600</v>
+        <v>43500</v>
       </c>
       <c r="G59" s="3">
-        <v>18900</v>
+        <v>19300</v>
       </c>
       <c r="H59" s="3">
-        <v>15600</v>
+        <v>15900</v>
       </c>
       <c r="I59" s="3">
-        <v>17000</v>
+        <v>17300</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K59" s="3"/>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>542100</v>
+        <v>553200</v>
       </c>
       <c r="E60" s="3">
-        <v>203000</v>
+        <v>207200</v>
       </c>
       <c r="F60" s="3">
-        <v>273700</v>
+        <v>279300</v>
       </c>
       <c r="G60" s="3">
-        <v>98300</v>
+        <v>100300</v>
       </c>
       <c r="H60" s="3">
-        <v>48500</v>
+        <v>49500</v>
       </c>
       <c r="I60" s="3">
-        <v>77300</v>
+        <v>78900</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K60" s="3"/>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>430000</v>
+        <v>438900</v>
       </c>
       <c r="E61" s="3">
-        <v>402500</v>
+        <v>410800</v>
       </c>
       <c r="F61" s="3">
-        <v>286400</v>
+        <v>292300</v>
       </c>
       <c r="G61" s="3">
-        <v>103700</v>
+        <v>105900</v>
       </c>
       <c r="H61" s="3">
-        <v>54600</v>
+        <v>55800</v>
       </c>
       <c r="I61" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
       <c r="K61" s="3"/>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>5400</v>
+        <v>5500</v>
       </c>
       <c r="E62" s="3">
         <v>900</v>
@@ -2042,7 +2077,7 @@
       </c>
       <c r="K62" s="3"/>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2069,7 +2104,7 @@
       </c>
       <c r="K63" s="3"/>
     </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2096,7 +2131,7 @@
       </c>
       <c r="K64" s="3"/>
     </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2123,34 +2158,34 @@
       </c>
       <c r="K65" s="3"/>
     </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>977600</v>
+        <v>997600</v>
       </c>
       <c r="E66" s="3">
-        <v>606400</v>
+        <v>618800</v>
       </c>
       <c r="F66" s="3">
-        <v>560300</v>
+        <v>571800</v>
       </c>
       <c r="G66" s="3">
-        <v>202000</v>
+        <v>206200</v>
       </c>
       <c r="H66" s="3">
-        <v>103200</v>
+        <v>105300</v>
       </c>
       <c r="I66" s="3">
-        <v>79000</v>
+        <v>80700</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K66" s="3"/>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2163,7 +2198,7 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
     </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2190,7 +2225,7 @@
       </c>
       <c r="K68" s="3"/>
     </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2217,7 +2252,7 @@
       </c>
       <c r="K69" s="3"/>
     </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2234,17 +2269,17 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>330600</v>
+        <v>337400</v>
       </c>
       <c r="I70" s="3">
-        <v>170100</v>
+        <v>173600</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
       </c>
       <c r="K70" s="3"/>
     </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2271,34 +2306,34 @@
       </c>
       <c r="K71" s="3"/>
     </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-59000</v>
+        <v>-60200</v>
       </c>
       <c r="E72" s="3">
-        <v>-76700</v>
+        <v>-78300</v>
       </c>
       <c r="F72" s="3">
-        <v>-81600</v>
+        <v>-83200</v>
       </c>
       <c r="G72" s="3">
-        <v>-182800</v>
+        <v>-186600</v>
       </c>
       <c r="H72" s="3">
-        <v>-140100</v>
+        <v>-143000</v>
       </c>
       <c r="I72" s="3">
-        <v>-87100</v>
+        <v>-88900</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K72" s="3"/>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2325,7 +2360,7 @@
       </c>
       <c r="K73" s="3"/>
     </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2352,7 +2387,7 @@
       </c>
       <c r="K74" s="3"/>
     </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2379,34 +2414,34 @@
       </c>
       <c r="K75" s="3"/>
     </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>611800</v>
+        <v>624300</v>
       </c>
       <c r="E76" s="3">
-        <v>580400</v>
+        <v>592300</v>
       </c>
       <c r="F76" s="3">
-        <v>574200</v>
+        <v>585900</v>
       </c>
       <c r="G76" s="3">
-        <v>344100</v>
+        <v>351200</v>
       </c>
       <c r="H76" s="3">
-        <v>-139100</v>
+        <v>-142000</v>
       </c>
       <c r="I76" s="3">
-        <v>-86700</v>
+        <v>-88500</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K76" s="3"/>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2433,12 +2468,12 @@
       </c>
       <c r="K77" s="3"/>
     </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
@@ -2465,34 +2500,34 @@
       </c>
       <c r="K80" s="2"/>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>17800</v>
+        <v>18100</v>
       </c>
       <c r="E81" s="3">
-        <v>4800</v>
+        <v>4900</v>
       </c>
       <c r="F81" s="3">
-        <v>101300</v>
+        <v>103300</v>
       </c>
       <c r="G81" s="3">
-        <v>-50000</v>
+        <v>-51000</v>
       </c>
       <c r="H81" s="3">
-        <v>-54100</v>
+        <v>-55200</v>
       </c>
       <c r="I81" s="3">
-        <v>-48100</v>
+        <v>-49100</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K81" s="3"/>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2505,34 +2540,34 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
     </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>109800</v>
+        <v>112100</v>
       </c>
       <c r="E83" s="3">
-        <v>97100</v>
+        <v>99100</v>
       </c>
       <c r="F83" s="3">
-        <v>69000</v>
+        <v>70500</v>
       </c>
       <c r="G83" s="3">
-        <v>41800</v>
+        <v>42700</v>
       </c>
       <c r="H83" s="3">
-        <v>28600</v>
+        <v>29100</v>
       </c>
       <c r="I83" s="3">
-        <v>24300</v>
+        <v>24800</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K83" s="3"/>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2559,7 +2594,7 @@
       </c>
       <c r="K84" s="3"/>
     </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="85" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2586,7 +2621,7 @@
       </c>
       <c r="K85" s="3"/>
     </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="86" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2613,7 +2648,7 @@
       </c>
       <c r="K86" s="3"/>
     </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2640,7 +2675,7 @@
       </c>
       <c r="K87" s="3"/>
     </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="88" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2667,34 +2702,34 @@
       </c>
       <c r="K88" s="3"/>
     </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="89" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>104700</v>
+        <v>106800</v>
       </c>
       <c r="E89" s="3">
-        <v>61200</v>
+        <v>62400</v>
       </c>
       <c r="F89" s="3">
-        <v>43100</v>
+        <v>44000</v>
       </c>
       <c r="G89" s="3">
-        <v>6200</v>
+        <v>6400</v>
       </c>
       <c r="H89" s="3">
         <v>1800</v>
       </c>
       <c r="I89" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K89" s="3"/>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2707,24 +2742,24 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
     </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="91" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-473400</v>
+        <v>-482700</v>
       </c>
       <c r="E91" s="3">
-        <v>-538200</v>
+        <v>-547300</v>
       </c>
       <c r="F91" s="3">
-        <v>-318500</v>
+        <v>-324000</v>
       </c>
       <c r="G91" s="3">
-        <v>-194300</v>
+        <v>-197000</v>
       </c>
       <c r="H91" s="3">
-        <v>-88300</v>
+        <v>-89200</v>
       </c>
       <c r="I91" s="3">
         <v>-42500</v>
@@ -2734,7 +2769,7 @@
       </c>
       <c r="K91" s="3"/>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2761,7 +2796,7 @@
       </c>
       <c r="K92" s="3"/>
     </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2788,34 +2823,34 @@
       </c>
       <c r="K93" s="3"/>
     </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="94" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-376000</v>
+        <v>-383700</v>
       </c>
       <c r="E94" s="3">
-        <v>-491800</v>
+        <v>-501900</v>
       </c>
       <c r="F94" s="3">
-        <v>-144300</v>
+        <v>-147200</v>
       </c>
       <c r="G94" s="3">
-        <v>-227200</v>
+        <v>-231800</v>
       </c>
       <c r="H94" s="3">
-        <v>-83800</v>
+        <v>-85600</v>
       </c>
       <c r="I94" s="3">
-        <v>-39700</v>
+        <v>-40500</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K94" s="3"/>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2828,7 +2863,7 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
     </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="96" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -2855,7 +2890,7 @@
       </c>
       <c r="K96" s="3"/>
     </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2882,7 +2917,7 @@
       </c>
       <c r="K97" s="3"/>
     </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="98" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2909,7 +2944,7 @@
       </c>
       <c r="K98" s="3"/>
     </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="99" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2936,34 +2971,34 @@
       </c>
       <c r="K99" s="3"/>
     </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="100" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>295500</v>
+        <v>301600</v>
       </c>
       <c r="E100" s="3">
-        <v>116100</v>
+        <v>118500</v>
       </c>
       <c r="F100" s="3">
-        <v>331800</v>
+        <v>338600</v>
       </c>
       <c r="G100" s="3">
-        <v>263800</v>
+        <v>269200</v>
       </c>
       <c r="H100" s="3">
-        <v>154600</v>
+        <v>157800</v>
       </c>
       <c r="I100" s="3">
-        <v>46800</v>
+        <v>47700</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K100" s="3"/>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -2971,10 +3006,10 @@
         <v>-3600</v>
       </c>
       <c r="E101" s="3">
-        <v>12000</v>
+        <v>12200</v>
       </c>
       <c r="F101" s="3">
-        <v>14200</v>
+        <v>14500</v>
       </c>
       <c r="G101" s="3">
         <v>100</v>
@@ -2990,27 +3025,27 @@
       </c>
       <c r="K101" s="3"/>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>20600</v>
+        <v>21000</v>
       </c>
       <c r="E102" s="3">
-        <v>-302600</v>
+        <v>-308800</v>
       </c>
       <c r="F102" s="3">
-        <v>244900</v>
+        <v>249900</v>
       </c>
       <c r="G102" s="3">
-        <v>43000</v>
+        <v>43900</v>
       </c>
       <c r="H102" s="3">
-        <v>72300</v>
+        <v>73800</v>
       </c>
       <c r="I102" s="3">
-        <v>10900</v>
+        <v>11100</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
